--- a/template Excel/HR/Department.xlsx
+++ b/template Excel/HR/Department.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A952A7CF-03D6-4143-B19E-7526A204304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDDA3B-D037-41DE-894E-6968F02CFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template Excel/HR/Department.xlsx
+++ b/template Excel/HR/Department.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DDDA3B-D037-41DE-894E-6968F02CFC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3EEEF-80DF-44D3-971F-3458F798E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11835" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template Excel/HR/Department.xlsx
+++ b/template Excel/HR/Department.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C3EEEF-80DF-44D3-971F-3458F798E873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024F40B-38E2-4C1C-9EBF-C06762371F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/template Excel/HR/Department.xlsx
+++ b/template Excel/HR/Department.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D024F40B-38E2-4C1C-9EBF-C06762371F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C095D3-D9C5-4450-9C25-BA4D02CB5255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC1D12A6-654B-4698-8B45-DF2CE8DB4011}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DepartmentId</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Accounting</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01A3B1-7F91-4F7B-9D95-E598A7062E24}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +480,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
